--- a/Output_testing/R1_201907/Country/HKD/MN/ARUBA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ARUBA_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>145</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ARUBA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ARUBA_201907_HKD_MN.xlsx
@@ -550,8 +550,10 @@
       <c r="E7" s="8" t="n">
         <v>2.070438</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.445304</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="G7" s="8" t="n">
         <v>1.262239</v>
@@ -646,11 +648,15 @@
       <c r="C10" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>0.016858</v>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.148395</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="F10" s="8" t="n">
         <v>2.195482</v>
@@ -661,8 +667,10 @@
       <c r="H10" s="9" t="n">
         <v>780.2645628188397</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>1379.485157855723</v>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="J10" s="9" t="n">
         <v>400.1150047474954</v>
@@ -692,8 +700,10 @@
       <c r="G11" s="8" t="n">
         <v>5.910406</v>
       </c>
-      <c r="H11" s="9" t="n">
-        <v>0.007904781651912884</v>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="I11" s="9" t="n">
         <v>-42.10796268518207</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ARUBA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ARUBA_201907_HKD_MN.xlsx
@@ -820,136 +820,497 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1.16394</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>31.10831490079571</v>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>17.155433</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>60.42112123978264</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>19.636778</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>74.98496904204998</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>13.162837</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>69.85596374216712</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>0.675821</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18.06248817342016</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-94.54852229051102</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.906043</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.191066873768583</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.416911</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.410614076827679</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1.134913</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.023051214454308</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>0.52108</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>13.92676661039798</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-17.6092971776425</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2.329532</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>8.204569095047228</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0.859012</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.280221848347495</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.9727170000000001</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.162267335179306</v>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.843861350255989</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-73.6749743244952</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.1363006921468895</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.5624795442456987</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.343747553777101</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.907028382722556</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>4.794520547945202</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.008744869265096</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.8061786755031071</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.2532993327699</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.555865823242209</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>73.55019344329057</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.027288102964149</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.1060272031603942</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.2246849928288354</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.318490730634076</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>299.5394252026529</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.4818070978215627</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.3917881957882463</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.544504340511574</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.132793382033007</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-22.22222222222222</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.251661</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.408327148146455</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.664749</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.538409467466286</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.846415</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.491975062125769</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.091687664970766</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-75.34309586520649</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1471800936466761</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.08362348635055368</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.893508931540005</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>5.955055</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>20.97359478741072</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>3.099485</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>11.83568846026055</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>2.091649</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>11.1005064261861</v>
+      </c>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>12.15919404998755</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-61.14350966917599</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -981,136 +1342,583 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.16394</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>92.21233062835168</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>8.062062230310687</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>4.807647363138043</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.958346</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>68.64544392481525</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.419677</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>68.5689211654732</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.850618903041518</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.897628737505338</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>69.3287037037037</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.34931784044049</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.238095514089289</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>8.140955392271348</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.08239327100493647</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-67.21311475409837</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>23.97461178828449</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>19.92206479981531</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>87.00842570468713</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.638542182861791</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>2.073232140541989</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.570314107449728</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.9573943059177797</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1142,136 +1950,491 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>16.197087</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>59.99582176184227</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>18.217101</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>75.53578090241973</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>13.141237</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>71.42938986181888</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>0.639246</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.78298276189604</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-94.83455273936472</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>0.571338</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.116299851557718</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1.004437</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.16481926308054</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>0.747461</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.062835422228897</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>0.52108</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>21.01694286326201</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>7.099107987010322</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2.329532</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.628847067408353</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>0.859012</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.561825903284468</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>0.9727170000000001</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.287217772437928</v>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>10.3281003398898</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-73.6749743244952</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.1433491282835794</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.610767900278229</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.376272379305886</v>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.405217451629127</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>4.794520547945202</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.8359958180577304</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.7690990087108439</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.086586611315731</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.83332977054716</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>78.24783267401733</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.080411637948996</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.1151295418813667</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.2301233954291994</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.498844245609606</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>299.5394252026529</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.5067224999791644</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4254228551836137</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.5576838314248969</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.218607585185209</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-22.22222222222222</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.251661</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.636292332210679</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.664749</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.756329605852359</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.846415</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.600701366232983</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.15657477232788</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-75.34309586520649</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1547911297633721</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.09080248640999958</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.857502400847325</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.250305357719971</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.267146438051777</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.685373806612315</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.39108663499417</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-48.04340014548514</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>5.84517</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>21.65116341522816</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>2.581232</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.70287609484707</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1.781582</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>9.683815553193281</v>
+      </c>
+      <c r="I54" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>13.51081117381167</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-68.30060194959371</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1303,136 +2466,553 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>8.950162000000001</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>95.27379222961015</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>6.854585</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>59.07789126648345</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>0.65455</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>21.56873987549412</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1.273048</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>58.69734613160804</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.037087127317227</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2.735217</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>23.57412629885501</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>11.62962201405337</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>21.65274059702126</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>461.898152579688</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>0.753956</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>24.84436764428698</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>15.27189263908626</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-44.5876133435942</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.3406375606773961</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>0.928928</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.00618963487825</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.038514704214338</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.513255509642508</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1653050212424776</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.211943454510243</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.2256224305668142</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.8262504184275975</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>161.7204615159924</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0.843998</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>7.274199980469934</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1.266437</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>41.73164803559872</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.8765349580893385</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.035326236145051</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.7325929662628873</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.2573090973966881</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.08773016239517564</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.049334005666719</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
